--- a/Attack Library/Attack Library.xlsx
+++ b/Attack Library/Attack Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7187D472-C858-40AC-AC82-49684D487141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E29624-19C1-4119-9BDA-3CF4E8DC5ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CVE, CWE" sheetId="6" r:id="rId1"/>

--- a/Attack Library/Attack Library.xlsx
+++ b/Attack Library/Attack Library.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E29624-19C1-4119-9BDA-3CF4E8DC5ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AA843B-E6E8-4CD2-8DF4-EB7CCC97BF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="510" windowWidth="14460" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CVE, CWE" sheetId="6" r:id="rId1"/>
@@ -541,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Source</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,6 +789,10 @@
   </si>
   <si>
     <t>AL-P-29</t>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1249,13 +1249,13 @@
         <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>165</v>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3">
         <v>2010</v>
@@ -1283,16 +1283,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3">
         <v>2010</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3">
         <v>2010</v>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="3">
         <v>2013</v>
@@ -1343,16 +1343,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3">
         <v>2015</v>
@@ -1363,16 +1363,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3">
         <v>2016</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3">
         <v>2016</v>
@@ -1403,16 +1403,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="3">
         <v>2017</v>
@@ -1423,16 +1423,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="3">
         <v>2017</v>
@@ -1443,16 +1443,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="3">
         <v>2018</v>
@@ -1463,16 +1463,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="3">
         <v>2018</v>
@@ -1483,16 +1483,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="3">
         <v>2018</v>
@@ -1503,16 +1503,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="3">
         <v>2018</v>
@@ -1523,16 +1523,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="3">
         <v>2019</v>
@@ -1543,16 +1543,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="3">
         <v>2019</v>
@@ -1563,16 +1563,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" s="3">
         <v>2019</v>
@@ -1583,16 +1583,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" s="3">
         <v>2019</v>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="3">
         <v>2021</v>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
@@ -1643,16 +1643,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" s="3">
         <v>2020</v>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="3">
         <v>2021</v>
@@ -1683,16 +1683,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" s="3">
         <v>2021</v>
@@ -1703,16 +1703,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="3">
         <v>2021</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="3">
         <v>2021</v>
@@ -1743,16 +1743,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="3">
         <v>2021</v>
@@ -1763,16 +1763,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E27" s="3">
         <v>2021</v>
@@ -1783,16 +1783,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E28" s="3">
         <v>2021</v>
@@ -1803,16 +1803,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E29" s="3">
         <v>2021</v>
@@ -1823,16 +1823,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E30" s="3">
         <v>2021</v>
@@ -1843,16 +1843,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E31" s="3">
         <v>2021</v>
@@ -1863,16 +1863,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E32" s="3">
         <v>2021</v>
@@ -1883,16 +1883,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E33" s="3">
         <v>2021</v>
@@ -1903,16 +1903,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="3">
         <v>2021</v>
@@ -1923,16 +1923,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E35" s="3">
         <v>2021</v>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E36" s="3">
         <v>2021</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37" s="3">
         <v>2006</v>
@@ -1983,16 +1983,16 @@
     </row>
     <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="3">
         <v>2006</v>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39" s="3">
         <v>2006</v>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="3">
         <v>2006</v>
@@ -2043,16 +2043,16 @@
     </row>
     <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E41" s="3">
         <v>2013</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="3">
         <v>2018</v>
@@ -2150,13 +2150,13 @@
         <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>165</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>42</v>
@@ -2179,12 +2179,12 @@
         <v>2017</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>42</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="4" spans="1:6" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>42</v>
@@ -2213,7 +2213,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="3">
         <v>2021</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>42</v>
@@ -2239,12 +2239,12 @@
         <v>2019</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>42</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>42</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>42</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>42</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>42</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>42</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>42</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>42</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>42</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>42</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>42</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>42</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>42</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>42</v>
@@ -2573,7 +2573,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E22" s="3">
         <v>2020</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>42</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>42</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>42</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>42</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="28" spans="1:6" ht="89.25" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>42</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>42</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>42</v>
